--- a/results/I2_N10_T100_C300_0_P5_res.xlsx
+++ b/results/I2_N10_T100_C300_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>498.8474223937857</v>
+        <v>433.410743643259</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02200007438659668</v>
+        <v>0.01999998092651367</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.16742239378572</v>
+        <v>33.93074364325894</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.054530861870959</v>
+        <v>2.580484450641003</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.054530861870959</v>
+        <v>2.580484450641003</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>375.78</v>
+        <v>235.1</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.90000000000001</v>
+        <v>164.38</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,28 +634,6 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -733,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -777,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -799,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -810,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -821,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -832,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -879,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -978,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1061,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.60033324079211</v>
+        <v>5.468996656383652</v>
       </c>
     </row>
     <row r="4">
@@ -1069,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36.73266487536227</v>
+        <v>36.95051889297534</v>
       </c>
     </row>
     <row r="5">
@@ -1077,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.34885527085025</v>
+        <v>34.16886835983306</v>
       </c>
     </row>
     <row r="6">
@@ -1085,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>34.76592070603971</v>
       </c>
     </row>
     <row r="7">
@@ -1093,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.71579249669672</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1101,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>33.8200130889828</v>
       </c>
     </row>
     <row r="9">
@@ -1117,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.31224998648503</v>
+        <v>32.45367071955468</v>
       </c>
     </row>
     <row r="11">
@@ -1125,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34.76592070603971</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -1133,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.686850673996716</v>
+        <v>32.01159140980466</v>
       </c>
     </row>
     <row r="13">
@@ -1141,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32.66758337047729</v>
+        <v>36.48759645946009</v>
       </c>
     </row>
     <row r="14">
@@ -1149,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39.31314932600328</v>
+        <v>39.53100334361635</v>
       </c>
     </row>
     <row r="15">
@@ -1157,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>37.90090852477161</v>
+        <v>38.28184163802894</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1268,34 +1246,6 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>13</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1398,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>241.825</v>
+        <v>97.1700000000008</v>
       </c>
     </row>
     <row r="8">
@@ -1409,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>249.75</v>
+        <v>99.27000000000081</v>
       </c>
     </row>
     <row r="9">
@@ -1420,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>243.875</v>
+        <v>100.1150000000008</v>
       </c>
     </row>
     <row r="10">
@@ -1431,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>259.23</v>
+        <v>99.0400000000008</v>
       </c>
     </row>
     <row r="11">
@@ -1442,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>243.96</v>
+        <v>97.9800000000008</v>
       </c>
     </row>
     <row r="12">
@@ -1453,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>323.3</v>
+        <v>319.67</v>
       </c>
     </row>
     <row r="13">
@@ -1464,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>330.43</v>
+        <v>323.35</v>
       </c>
     </row>
     <row r="14">
@@ -1475,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>328.59</v>
+        <v>324.535</v>
       </c>
     </row>
     <row r="15">
@@ -1486,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>339.665</v>
+        <v>329.9</v>
       </c>
     </row>
     <row r="16">
@@ -1497,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>331.305</v>
+        <v>320.095</v>
       </c>
     </row>
     <row r="17">
@@ -1508,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.3</v>
+        <v>224.1799999999995</v>
       </c>
     </row>
     <row r="18">
@@ -1519,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3449999999993</v>
+        <v>224.6649999999995</v>
       </c>
     </row>
     <row r="19">
@@ -1530,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7049999999993</v>
+        <v>201.1149999999995</v>
       </c>
     </row>
     <row r="20">
@@ -1541,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>146.3249999999993</v>
+        <v>218.9699999999995</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.2149999999993</v>
+        <v>207.1049999999995</v>
       </c>
     </row>
     <row r="22">
@@ -1563,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>72.6299999999995</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="23">
@@ -1574,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>80.0549999999995</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="24">
@@ -1585,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>82.31999999999948</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="25">
@@ -1596,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>83.9549999999995</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="26">
@@ -1607,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.8149999999995</v>
+        <v>224.4749999999995</v>
       </c>
     </row>
     <row r="27">
@@ -1618,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>295.9199999999996</v>
+        <v>69.88000000000022</v>
       </c>
     </row>
     <row r="28">
@@ -1629,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>323.5</v>
+        <v>76.32000000000022</v>
       </c>
     </row>
     <row r="29">
@@ -1640,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>294.2649999999996</v>
+        <v>72.41000000000021</v>
       </c>
     </row>
     <row r="30">
@@ -1651,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>311.1</v>
+        <v>72.64500000000022</v>
       </c>
     </row>
     <row r="31">
@@ -1662,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>297.3649999999997</v>
+        <v>72.89000000000021</v>
       </c>
     </row>
     <row r="32">
@@ -1673,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3799999999999</v>
+        <v>177.26</v>
       </c>
     </row>
     <row r="33">
@@ -1684,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2399999999999</v>
+        <v>188.5600000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1695,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>93.78999999999985</v>
+        <v>166.2</v>
       </c>
     </row>
     <row r="35">
@@ -1706,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.8349999999998</v>
+        <v>181.48</v>
       </c>
     </row>
     <row r="36">
@@ -1717,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.77999999999986</v>
+        <v>167.6700000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1728,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>131.8799999999992</v>
+        <v>180.2450000000007</v>
       </c>
     </row>
     <row r="38">
@@ -1739,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>132.1600000000001</v>
+        <v>183.9900000000007</v>
       </c>
     </row>
     <row r="39">
@@ -1750,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>130.6050000000001</v>
+        <v>178.0900000000007</v>
       </c>
     </row>
     <row r="40">
@@ -1761,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>140.0749999999992</v>
+        <v>188.8100000000007</v>
       </c>
     </row>
     <row r="41">
@@ -1772,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>128.1550000000001</v>
+        <v>179.8350000000007</v>
       </c>
     </row>
     <row r="42">
@@ -1783,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>140.5549999999988</v>
+        <v>153.4099999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1794,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>159.2149999999995</v>
+        <v>167.1249999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1805,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>142.1399999999988</v>
+        <v>139.5349999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1816,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>147.7249999999995</v>
+        <v>154.5</v>
       </c>
     </row>
     <row r="46">
@@ -1827,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>139.7449999999989</v>
+        <v>143.6599999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1838,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>226.0399999999994</v>
+        <v>85.48500000000051</v>
       </c>
     </row>
     <row r="48">
@@ -1849,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>247.18</v>
+        <v>87.9650000000005</v>
       </c>
     </row>
     <row r="49">
@@ -1860,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>221.8549999999994</v>
+        <v>79.71500000000052</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>238.455</v>
+        <v>90.7300000000005</v>
       </c>
     </row>
     <row r="51">
@@ -1882,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>224.4749999999994</v>
+        <v>84.73000000000052</v>
       </c>
     </row>
     <row r="52">
@@ -1893,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>48.80499999999927</v>
+        <v>238.195</v>
       </c>
     </row>
     <row r="53">
@@ -1904,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>47.43999999999927</v>
+        <v>242.67</v>
       </c>
     </row>
     <row r="54">
@@ -1915,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>52.62999999999927</v>
+        <v>239.82</v>
       </c>
     </row>
     <row r="55">
@@ -1926,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>50.30499999999927</v>
+        <v>249.465</v>
       </c>
     </row>
     <row r="56">
@@ -1937,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>46.3</v>
+        <v>232.75</v>
       </c>
     </row>
     <row r="57">
@@ -1948,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>154.3</v>
+        <v>224.1799999999995</v>
       </c>
     </row>
     <row r="58">
@@ -1959,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>148.3449999999993</v>
+        <v>224.6649999999995</v>
       </c>
     </row>
     <row r="59">
@@ -1970,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>128.7049999999993</v>
+        <v>201.1149999999995</v>
       </c>
     </row>
     <row r="60">
@@ -1981,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>146.3249999999993</v>
+        <v>218.9699999999995</v>
       </c>
     </row>
     <row r="61">
@@ -1992,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>134.2149999999993</v>
+        <v>207.1049999999995</v>
       </c>
     </row>
     <row r="62">
@@ -2003,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>323.3</v>
+        <v>319.67</v>
       </c>
     </row>
     <row r="63">
@@ -2014,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>330.43</v>
+        <v>323.35</v>
       </c>
     </row>
     <row r="64">
@@ -2025,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>328.59</v>
+        <v>324.535</v>
       </c>
     </row>
     <row r="65">
@@ -2036,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>339.665</v>
+        <v>329.9</v>
       </c>
     </row>
     <row r="66">
@@ -2047,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>331.305</v>
+        <v>320.095</v>
       </c>
     </row>
     <row r="67">
@@ -2058,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>295.9199999999996</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="68">
@@ -2069,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>323.5</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="69">
@@ -2080,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>294.2649999999996</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="70">
@@ -2091,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>311.1</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="71">
@@ -2102,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>297.3649999999997</v>
+        <v>224.4749999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>23.3</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="8">
@@ -2215,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>30.43</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="9">
@@ -2226,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>28.59</v>
+        <v>24.535</v>
       </c>
     </row>
     <row r="10">
@@ -2237,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>39.665</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="11">
@@ -2248,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>31.305</v>
+        <v>20.095</v>
       </c>
     </row>
     <row r="12">
@@ -2270,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>23.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2292,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2350,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>12.775</v>
       </c>
     </row>
     <row r="3">
@@ -2361,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="4">
@@ -2372,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.155</v>
       </c>
     </row>
     <row r="5">
@@ -2383,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>20.115</v>
       </c>
     </row>
     <row r="6">
@@ -2394,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>17.825</v>
       </c>
     </row>
     <row r="7">
@@ -2845,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>9.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2856,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>11.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2867,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2878,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>10.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2889,7 +2839,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>6.615</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2983,28 +2933,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/I2_N10_T100_C300_0_P5_res.xlsx
+++ b/results/I2_N10_T100_C300_0_P5_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01999998092651367</v>
+        <v>0.01800012588500977</v>
       </c>
     </row>
     <row r="5">
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.468996656383652</v>
+        <v>5.336665625650539</v>
       </c>
     </row>
     <row r="4">
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34.76592070603971</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1095,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.45367071955468</v>
+        <v>32.31224998648503</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>34.76592070603971</v>
       </c>
     </row>
     <row r="12">
@@ -1119,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>36.48759645946009</v>
+        <v>37.87444125446785</v>
       </c>
     </row>
     <row r="14">
@@ -1135,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>38.28184163802894</v>
+        <v>36.48759645946009</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>226.0399999999994</v>
+        <v>72.6299999999995</v>
       </c>
     </row>
     <row r="23">
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>247.1799999999994</v>
+        <v>80.0549999999995</v>
       </c>
     </row>
     <row r="24">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>221.8549999999994</v>
+        <v>82.31999999999948</v>
       </c>
     </row>
     <row r="25">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>238.4549999999994</v>
+        <v>83.9549999999995</v>
       </c>
     </row>
     <row r="26">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>224.4749999999995</v>
+        <v>80.8149999999995</v>
       </c>
     </row>
     <row r="27">
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>153.4099999999999</v>
+        <v>140.5549999999989</v>
       </c>
     </row>
     <row r="43">
@@ -1744,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>167.1249999999999</v>
+        <v>159.2149999999989</v>
       </c>
     </row>
     <row r="44">
@@ -1755,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>139.5349999999999</v>
+        <v>142.1399999999989</v>
       </c>
     </row>
     <row r="45">
@@ -1766,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>154.5</v>
+        <v>147.7249999999989</v>
       </c>
     </row>
     <row r="46">
@@ -1777,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>143.6599999999999</v>
+        <v>139.7449999999989</v>
       </c>
     </row>
     <row r="47">
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>85.48500000000051</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="48">
@@ -1799,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>87.9650000000005</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="49">
@@ -1810,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>79.71500000000052</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="50">
@@ -1821,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>90.7300000000005</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="51">
@@ -1832,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>84.73000000000052</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="52">
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>224.1799999999995</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="58">
@@ -1909,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>224.6649999999995</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="59">
@@ -1920,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>201.1149999999995</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="60">
@@ -1931,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>218.9699999999995</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="61">
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>207.1049999999995</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="62">
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>226.0399999999994</v>
+        <v>224.1799999999995</v>
       </c>
     </row>
     <row r="68">
@@ -2019,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>247.1799999999994</v>
+        <v>224.6649999999995</v>
       </c>
     </row>
     <row r="69">
@@ -2030,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>221.8549999999994</v>
+        <v>201.1149999999995</v>
       </c>
     </row>
     <row r="70">
@@ -2041,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>238.4549999999994</v>
+        <v>218.9699999999995</v>
       </c>
     </row>
     <row r="71">
@@ -2052,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>224.4749999999995</v>
+        <v>207.1049999999995</v>
       </c>
     </row>
   </sheetData>
